--- a/valve_database.xlsx
+++ b/valve_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBAFE0-0B80-4AB1-B2DB-FF8E0AB5E773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24180586-4AE6-4465-9402-34DF9E5E0C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="3260" windowWidth="28800" windowHeight="15460" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="3260" windowWidth="28800" windowHeight="15460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valve List" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3.28</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
@@ -957,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>7.39</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -972,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -987,7 +987,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>14.2</v>
+        <v>400</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1002,7 +1002,7 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>14.9</v>
+        <v>500</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1017,7 +1017,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>15.3</v>
+        <v>600</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1032,7 +1032,7 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>15.7</v>
+        <v>700</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1047,7 +1047,7 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1062,7 +1062,7 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>16.399999999999999</v>
+        <v>900</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1077,7 +1077,7 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>16.8</v>
+        <v>1000</v>
       </c>
       <c r="C12">
         <f>SQRT(D12)</f>
